--- a/Code/Results/Cases/Case_5_240/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_240/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.560441235935059</v>
+        <v>1.654881412372163</v>
       </c>
       <c r="C2">
-        <v>0.5962110727418803</v>
+        <v>0.3269421160261743</v>
       </c>
       <c r="D2">
-        <v>0.08776283757248393</v>
+        <v>0.04116341890146913</v>
       </c>
       <c r="E2">
-        <v>0.01644882345385223</v>
+        <v>0.07090668655138455</v>
       </c>
       <c r="F2">
-        <v>6.814568689828405</v>
+        <v>5.035716064856729</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1461701391508896</v>
+        <v>0.1825092295514565</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5345496983490747</v>
+        <v>0.4906818933942247</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.209453812627999</v>
+        <v>1.587511678723217</v>
       </c>
       <c r="C3">
-        <v>0.5101966290967823</v>
+        <v>0.3113641504571092</v>
       </c>
       <c r="D3">
-        <v>0.07511755156711786</v>
+        <v>0.03808527330614453</v>
       </c>
       <c r="E3">
-        <v>0.0167437885264512</v>
+        <v>0.0715131709158543</v>
       </c>
       <c r="F3">
-        <v>6.091542649109442</v>
+        <v>4.851349761971932</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1350218267741141</v>
+        <v>0.1800861087913717</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4650173322030611</v>
+        <v>0.4803755351054306</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.000182002722852</v>
+        <v>1.547709735660874</v>
       </c>
       <c r="C4">
-        <v>0.4590211430941906</v>
+        <v>0.3021723861943997</v>
       </c>
       <c r="D4">
-        <v>0.06755646170445573</v>
+        <v>0.03620435605166961</v>
       </c>
       <c r="E4">
-        <v>0.01695168855054074</v>
+        <v>0.07191249689968959</v>
       </c>
       <c r="F4">
-        <v>5.659908267996229</v>
+        <v>4.739545318433045</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1284058413089397</v>
+        <v>0.1786455481354849</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4237432514732191</v>
+        <v>0.4745060722008105</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.916259030101344</v>
+        <v>1.531880906409128</v>
       </c>
       <c r="C5">
-        <v>0.4385197502931248</v>
+        <v>0.2985197732467952</v>
       </c>
       <c r="D5">
-        <v>0.06451786078907418</v>
+        <v>0.03543994555655416</v>
       </c>
       <c r="E5">
-        <v>0.01704303452121714</v>
+        <v>0.07208201892930965</v>
       </c>
       <c r="F5">
-        <v>5.48667871194877</v>
+        <v>4.694327541323219</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1257603461882866</v>
+        <v>0.1780702718662894</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4072361829949287</v>
+        <v>0.4722291538982617</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.902399913385921</v>
+        <v>1.529276077001441</v>
       </c>
       <c r="C6">
-        <v>0.4351352406484637</v>
+        <v>0.2979188619854369</v>
       </c>
       <c r="D6">
-        <v>0.06401564567805451</v>
+        <v>0.03531313537883563</v>
       </c>
       <c r="E6">
-        <v>0.0170585995885677</v>
+        <v>0.07211057879045768</v>
       </c>
       <c r="F6">
-        <v>5.458063331867407</v>
+        <v>4.686839677559135</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1253239263888304</v>
+        <v>0.1779754548219969</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4045128641985656</v>
+        <v>0.4718580036487552</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.999044955744068</v>
+        <v>1.547494683280945</v>
       </c>
       <c r="C7">
-        <v>0.4587432975120009</v>
+        <v>0.3021227497480652</v>
       </c>
       <c r="D7">
-        <v>0.06751532012032158</v>
+        <v>0.0361940387971984</v>
       </c>
       <c r="E7">
-        <v>0.01695289378683995</v>
+        <v>0.07191475560147431</v>
       </c>
       <c r="F7">
-        <v>5.657561778025212</v>
+        <v>4.738934115475132</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1283699672349243</v>
+        <v>0.1786377422794558</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.423519421316918</v>
+        <v>0.4744749000345223</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.437991673758802</v>
+        <v>1.631326407921563</v>
       </c>
       <c r="C8">
-        <v>0.5661757465150572</v>
+        <v>0.3214929308547312</v>
       </c>
       <c r="D8">
-        <v>0.08335516837827583</v>
+        <v>0.04010006669525268</v>
       </c>
       <c r="E8">
-        <v>0.01654489527175684</v>
+        <v>0.07111022167740177</v>
       </c>
       <c r="F8">
-        <v>6.562441333830662</v>
+        <v>4.971851739380128</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1422741593549901</v>
+        <v>0.1816638604472587</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.510252045367217</v>
+        <v>0.4870328087104596</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.359243883571708</v>
+        <v>1.808243947042229</v>
       </c>
       <c r="C9">
-        <v>0.792925026596663</v>
+        <v>0.3624750792876057</v>
       </c>
       <c r="D9">
-        <v>0.1164687385961969</v>
+        <v>0.0478413228032224</v>
       </c>
       <c r="E9">
-        <v>0.01596328884103393</v>
+        <v>0.06974548337809239</v>
       </c>
       <c r="F9">
-        <v>8.45680349110873</v>
+        <v>5.440070794699466</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1717228665705903</v>
+        <v>0.1879786103686101</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6939093620544625</v>
+        <v>0.5153194574814037</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.091101099001264</v>
+        <v>1.94604602191572</v>
       </c>
       <c r="C10">
-        <v>0.9744312625433906</v>
+        <v>0.3944671454913475</v>
       </c>
       <c r="D10">
-        <v>0.1427694850445391</v>
+        <v>0.05359221828011584</v>
       </c>
       <c r="E10">
-        <v>0.01567901886506551</v>
+        <v>0.06887151593473551</v>
       </c>
       <c r="F10">
-        <v>9.958131009254998</v>
+        <v>5.791629124467505</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1952865872354579</v>
+        <v>0.1928585155890943</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8409407627456673</v>
+        <v>0.5383669275127403</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.441050567250898</v>
+        <v>2.01047653750777</v>
       </c>
       <c r="C11">
-        <v>1.061682204142301</v>
+        <v>0.4094424976639175</v>
       </c>
       <c r="D11">
-        <v>0.1553629940663797</v>
+        <v>0.05622521823757154</v>
       </c>
       <c r="E11">
-        <v>0.01558351828407023</v>
+        <v>0.06850163978818546</v>
       </c>
       <c r="F11">
-        <v>10.67499481750576</v>
+        <v>5.953329208850903</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2065901069701255</v>
+        <v>0.1951326180401409</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9115244291845386</v>
+        <v>0.5493515098151676</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.576541047367755</v>
+        <v>2.035128669714027</v>
       </c>
       <c r="C12">
-        <v>1.095546119447846</v>
+        <v>0.415174936307352</v>
       </c>
       <c r="D12">
-        <v>0.1602430543848357</v>
+        <v>0.05722493247141358</v>
       </c>
       <c r="E12">
-        <v>0.01555250360893723</v>
+        <v>0.06836554187147126</v>
       </c>
       <c r="F12">
-        <v>10.95236785325079</v>
+        <v>6.014825675715713</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2109715033080306</v>
+        <v>0.1960017025120351</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9388954839236945</v>
+        <v>0.5535836053970584</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.547219065156753</v>
+        <v>2.029808060759422</v>
       </c>
       <c r="C13">
-        <v>1.088213540401398</v>
+        <v>0.4139375986545986</v>
       </c>
       <c r="D13">
-        <v>0.1591867273329086</v>
+        <v>0.05700950445243791</v>
       </c>
       <c r="E13">
-        <v>0.01555894899174248</v>
+        <v>0.06839467685753053</v>
       </c>
       <c r="F13">
-        <v>10.89234893651866</v>
+        <v>6.001569418181248</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2100230928180693</v>
+        <v>0.1958141746856086</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9329700535400676</v>
+        <v>0.5526689156966214</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.452134502246111</v>
+        <v>2.012499581582972</v>
       </c>
       <c r="C14">
-        <v>1.06445072276955</v>
+        <v>0.4099128689963436</v>
       </c>
       <c r="D14">
-        <v>0.155762118188008</v>
+        <v>0.05630741083118096</v>
       </c>
       <c r="E14">
-        <v>0.01558086164758876</v>
+        <v>0.06849036353677906</v>
       </c>
       <c r="F14">
-        <v>10.69768930462362</v>
+        <v>5.958383214121568</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2069484337530128</v>
+        <v>0.1952039584005263</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9137626701371815</v>
+        <v>0.5496982311915062</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.394296882314507</v>
+        <v>2.001930766140447</v>
       </c>
       <c r="C15">
-        <v>1.050007602808392</v>
+        <v>0.407455655316852</v>
       </c>
       <c r="D15">
-        <v>0.1536796083764642</v>
+        <v>0.05587771062643299</v>
       </c>
       <c r="E15">
-        <v>0.01559496382547643</v>
+        <v>0.06854949041495484</v>
       </c>
       <c r="F15">
-        <v>10.57925884486843</v>
+        <v>5.931965087199785</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2050788297144592</v>
+        <v>0.1948312202676732</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9020849391976924</v>
+        <v>0.5478880558615415</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.068616142443148</v>
+        <v>1.941870673897654</v>
       </c>
       <c r="C16">
-        <v>0.968835617978101</v>
+        <v>0.393497040321904</v>
       </c>
       <c r="D16">
-        <v>0.1419608092134013</v>
+        <v>0.05342050462174086</v>
       </c>
       <c r="E16">
-        <v>0.01568596379760745</v>
+        <v>0.06889624410985462</v>
       </c>
       <c r="F16">
-        <v>9.912048685708612</v>
+        <v>5.781098115288358</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1945610115480463</v>
+        <v>0.1927110000422729</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8364113503547586</v>
+        <v>0.5376591703948606</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.873523648938374</v>
+        <v>1.905474422068664</v>
       </c>
       <c r="C17">
-        <v>0.9203364716846636</v>
+        <v>0.3850426090880887</v>
       </c>
       <c r="D17">
-        <v>0.134946362526648</v>
+        <v>0.05191757373357575</v>
       </c>
       <c r="E17">
-        <v>0.01575063783191943</v>
+        <v>0.06911604807206917</v>
       </c>
       <c r="F17">
-        <v>9.512098083570407</v>
+        <v>5.689006943400869</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1882694187726273</v>
+        <v>0.1914242938552917</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7971421569952568</v>
+        <v>0.5315125704641375</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.762877257381092</v>
+        <v>1.884704199872317</v>
       </c>
       <c r="C18">
-        <v>0.8928712273930159</v>
+        <v>0.380219508272404</v>
       </c>
       <c r="D18">
-        <v>0.1309696108803706</v>
+        <v>0.05105470363831444</v>
       </c>
       <c r="E18">
-        <v>0.01579099945628837</v>
+        <v>0.06924508135163787</v>
       </c>
       <c r="F18">
-        <v>9.285175733127147</v>
+        <v>5.636205009110938</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1847044697177012</v>
+        <v>0.1906893086201933</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7748958992568902</v>
+        <v>0.5280242533333137</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.725668841221761</v>
+        <v>1.877699827562765</v>
       </c>
       <c r="C19">
-        <v>0.8836417470099889</v>
+        <v>0.3785932741720046</v>
       </c>
       <c r="D19">
-        <v>0.129632506206903</v>
+        <v>0.05076281449564135</v>
       </c>
       <c r="E19">
-        <v>0.015805200545568</v>
+        <v>0.06928921821067657</v>
       </c>
       <c r="F19">
-        <v>9.208850876887738</v>
+        <v>5.618355501492204</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1835062144792161</v>
+        <v>0.1904413260672513</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7674191225640428</v>
+        <v>0.5268512326574424</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.894126065431578</v>
+        <v>1.909331876987835</v>
       </c>
       <c r="C20">
-        <v>0.9254537722812302</v>
+        <v>0.3859384860678858</v>
       </c>
       <c r="D20">
-        <v>0.1356869458087004</v>
+        <v>0.05207739855512727</v>
       </c>
       <c r="E20">
-        <v>0.01574342392277828</v>
+        <v>0.06909237978234728</v>
       </c>
       <c r="F20">
-        <v>9.554343848826761</v>
+        <v>5.698792911956588</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1889334877306226</v>
+        <v>0.1915607377251192</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8012864718497354</v>
+        <v>0.5321620136780183</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.479977773219161</v>
+        <v>2.017576592263879</v>
       </c>
       <c r="C21">
-        <v>1.071406722536977</v>
+        <v>0.4110933504914556</v>
       </c>
       <c r="D21">
-        <v>0.1567648061832898</v>
+        <v>0.05651355889820309</v>
       </c>
       <c r="E21">
-        <v>0.01557428305700448</v>
+        <v>0.06846215052964055</v>
       </c>
       <c r="F21">
-        <v>10.75469581893162</v>
+        <v>5.97106080764371</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2078486426499282</v>
+        <v>0.1953829773677072</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9193859111951355</v>
+        <v>0.5505688218807663</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.880515421113671</v>
+        <v>2.089800933539834</v>
       </c>
       <c r="C22">
-        <v>1.17169186063461</v>
+        <v>0.4278929910618103</v>
       </c>
       <c r="D22">
-        <v>0.1712012124710327</v>
+        <v>0.05942842401695714</v>
       </c>
       <c r="E22">
-        <v>0.01549392960516727</v>
+        <v>0.06807336955784127</v>
       </c>
       <c r="F22">
-        <v>11.57429564126005</v>
+        <v>6.150547587691278</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2208099471244722</v>
+        <v>0.1979273261512091</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.000384806428634</v>
+        <v>0.5630214304542918</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.664923682485892</v>
+        <v>2.05111700721784</v>
       </c>
       <c r="C23">
-        <v>1.117661391373872</v>
+        <v>0.4188935049162978</v>
       </c>
       <c r="D23">
-        <v>0.1634277911480808</v>
+        <v>0.05787120500767173</v>
       </c>
       <c r="E23">
-        <v>0.01553394348449011</v>
+        <v>0.06827876007995215</v>
       </c>
       <c r="F23">
-        <v>11.13324941997229</v>
+        <v>6.054607832565921</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2138309064040342</v>
+        <v>0.1965650777904102</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9567624216503603</v>
+        <v>0.5563363756703623</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.884807032580511</v>
+        <v>1.907587440708198</v>
       </c>
       <c r="C24">
-        <v>0.9231389510131578</v>
+        <v>0.3855333434610202</v>
       </c>
       <c r="D24">
-        <v>0.1353519553513678</v>
+        <v>0.0520051380799913</v>
       </c>
       <c r="E24">
-        <v>0.01574667544804065</v>
+        <v>0.06910307191381904</v>
       </c>
       <c r="F24">
-        <v>9.535235224212556</v>
+        <v>5.694368232372682</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.188633100890236</v>
+        <v>0.1914990366377083</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7994118069004159</v>
+        <v>0.5318682588910377</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.101849765558313</v>
+        <v>1.759023393854648</v>
       </c>
       <c r="C25">
-        <v>0.7293862081614577</v>
+        <v>0.3510618189815489</v>
       </c>
       <c r="D25">
-        <v>0.1072233985368456</v>
+        <v>0.04573697145535505</v>
       </c>
       <c r="E25">
-        <v>0.0160963225491102</v>
+        <v>0.07009199948940825</v>
       </c>
       <c r="F25">
-        <v>7.928072731911669</v>
+        <v>5.312119290078272</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1634665058579401</v>
+        <v>0.1862286961929982</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6424147262755611</v>
+        <v>0.5072718644532017</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_240/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_240/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.654881412372163</v>
+        <v>2.560441235935059</v>
       </c>
       <c r="C2">
-        <v>0.3269421160261743</v>
+        <v>0.5962110727414256</v>
       </c>
       <c r="D2">
-        <v>0.04116341890146913</v>
+        <v>0.0877628375727042</v>
       </c>
       <c r="E2">
-        <v>0.07090668655138455</v>
+        <v>0.0164488234538771</v>
       </c>
       <c r="F2">
-        <v>5.035716064856729</v>
+        <v>6.814568689828434</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1825092295514565</v>
+        <v>0.1461701391511667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4906818933942247</v>
+        <v>0.5345496983490676</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.587511678723217</v>
+        <v>2.209453812627828</v>
       </c>
       <c r="C3">
-        <v>0.3113641504571092</v>
+        <v>0.5101966290969244</v>
       </c>
       <c r="D3">
-        <v>0.03808527330614453</v>
+        <v>0.07511755156733813</v>
       </c>
       <c r="E3">
-        <v>0.0715131709158543</v>
+        <v>0.01674378852651515</v>
       </c>
       <c r="F3">
-        <v>4.851349761971932</v>
+        <v>6.091542649109442</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1800861087913717</v>
+        <v>0.135021826774171</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4803755351054306</v>
+        <v>0.4650173322030611</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.547709735660874</v>
+        <v>2.000182002722852</v>
       </c>
       <c r="C4">
-        <v>0.3021723861943997</v>
+        <v>0.4590211430943043</v>
       </c>
       <c r="D4">
-        <v>0.03620435605166961</v>
+        <v>0.06755646170465468</v>
       </c>
       <c r="E4">
-        <v>0.07191249689968959</v>
+        <v>0.01695168855052831</v>
       </c>
       <c r="F4">
-        <v>4.739545318433045</v>
+        <v>5.659908267996286</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1786455481354849</v>
+        <v>0.1284058413089681</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4745060722008105</v>
+        <v>0.4237432514731978</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.531880906409128</v>
+        <v>1.916259030101401</v>
       </c>
       <c r="C5">
-        <v>0.2985197732467952</v>
+        <v>0.4385197502935512</v>
       </c>
       <c r="D5">
-        <v>0.03543994555655416</v>
+        <v>0.06451786078915944</v>
       </c>
       <c r="E5">
-        <v>0.07208201892930965</v>
+        <v>0.01704303452119404</v>
       </c>
       <c r="F5">
-        <v>4.694327541323219</v>
+        <v>5.486678711948684</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1780702718662894</v>
+        <v>0.1257603461884216</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4722291538982617</v>
+        <v>0.4072361829949145</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.529276077001441</v>
+        <v>1.902399913386034</v>
       </c>
       <c r="C6">
-        <v>0.2979188619854369</v>
+        <v>0.4351352406480942</v>
       </c>
       <c r="D6">
-        <v>0.03531313537883563</v>
+        <v>0.06401564567805451</v>
       </c>
       <c r="E6">
-        <v>0.07211057879045768</v>
+        <v>0.0170585995885677</v>
       </c>
       <c r="F6">
-        <v>4.686839677559135</v>
+        <v>5.458063331867379</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1779754548219969</v>
+        <v>0.1253239263888446</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4718580036487552</v>
+        <v>0.4045128641985727</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.547494683280945</v>
+        <v>1.999044955744125</v>
       </c>
       <c r="C7">
-        <v>0.3021227497480652</v>
+        <v>0.458743297511603</v>
       </c>
       <c r="D7">
-        <v>0.0361940387971984</v>
+        <v>0.06751532012049211</v>
       </c>
       <c r="E7">
-        <v>0.07191475560147431</v>
+        <v>0.01695289378684173</v>
       </c>
       <c r="F7">
-        <v>4.738934115475132</v>
+        <v>5.657561778025268</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1786377422794558</v>
+        <v>0.1283699672349101</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4744749000345223</v>
+        <v>0.4235194213169109</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.631326407921563</v>
+        <v>2.437991673758802</v>
       </c>
       <c r="C8">
-        <v>0.3214929308547312</v>
+        <v>0.5661757465150288</v>
       </c>
       <c r="D8">
-        <v>0.04010006669525268</v>
+        <v>0.08335516837819767</v>
       </c>
       <c r="E8">
-        <v>0.07111022167740177</v>
+        <v>0.01654489527175951</v>
       </c>
       <c r="F8">
-        <v>4.971851739380128</v>
+        <v>6.562441333830776</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1816638604472587</v>
+        <v>0.1422741593551251</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4870328087104596</v>
+        <v>0.5102520453671957</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.808243947042229</v>
+        <v>3.359243883572219</v>
       </c>
       <c r="C9">
-        <v>0.3624750792876057</v>
+        <v>0.7929250265966061</v>
       </c>
       <c r="D9">
-        <v>0.0478413228032224</v>
+        <v>0.1164687385967085</v>
       </c>
       <c r="E9">
-        <v>0.06974548337809239</v>
+        <v>0.01596328884095843</v>
       </c>
       <c r="F9">
-        <v>5.440070794699466</v>
+        <v>8.456803491108559</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1879786103686101</v>
+        <v>0.1717228665705548</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5153194574814037</v>
+        <v>0.6939093620544341</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.94604602191572</v>
+        <v>4.091101099001492</v>
       </c>
       <c r="C10">
-        <v>0.3944671454913475</v>
+        <v>0.974431262543817</v>
       </c>
       <c r="D10">
-        <v>0.05359221828011584</v>
+        <v>0.1427694850448802</v>
       </c>
       <c r="E10">
-        <v>0.06887151593473551</v>
+        <v>0.01567901886503709</v>
       </c>
       <c r="F10">
-        <v>5.791629124467505</v>
+        <v>9.958131009255283</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1928585155890943</v>
+        <v>0.1952865872355147</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5383669275127403</v>
+        <v>0.8409407627456176</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.01047653750777</v>
+        <v>4.441050567250898</v>
       </c>
       <c r="C11">
-        <v>0.4094424976639175</v>
+        <v>1.061682204142642</v>
       </c>
       <c r="D11">
-        <v>0.05622521823757154</v>
+        <v>0.1553629940665218</v>
       </c>
       <c r="E11">
-        <v>0.06850163978818546</v>
+        <v>0.01558351828404181</v>
       </c>
       <c r="F11">
-        <v>5.953329208850903</v>
+        <v>10.67499481750582</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1951326180401409</v>
+        <v>0.2065901069699692</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5493515098151676</v>
+        <v>0.9115244291845741</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.035128669714027</v>
+        <v>4.576541047367868</v>
       </c>
       <c r="C12">
-        <v>0.415174936307352</v>
+        <v>1.095546119448358</v>
       </c>
       <c r="D12">
-        <v>0.05722493247141358</v>
+        <v>0.1602430543846651</v>
       </c>
       <c r="E12">
-        <v>0.06836554187147126</v>
+        <v>0.01555250360891325</v>
       </c>
       <c r="F12">
-        <v>6.014825675715713</v>
+        <v>10.95236785325073</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1960017025120351</v>
+        <v>0.2109715033080732</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5535836053970584</v>
+        <v>0.9388954839236661</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.029808060759422</v>
+        <v>4.547219065156696</v>
       </c>
       <c r="C13">
-        <v>0.4139375986545986</v>
+        <v>1.088213540401426</v>
       </c>
       <c r="D13">
-        <v>0.05700950445243791</v>
+        <v>0.1591867273329939</v>
       </c>
       <c r="E13">
-        <v>0.06839467685753053</v>
+        <v>0.01555894899176202</v>
       </c>
       <c r="F13">
-        <v>6.001569418181248</v>
+        <v>10.8923489365186</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1958141746856086</v>
+        <v>0.210023092818183</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5526689156966214</v>
+        <v>0.9329700535400818</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.012499581582972</v>
+        <v>4.452134502246281</v>
       </c>
       <c r="C14">
-        <v>0.4099128689963436</v>
+        <v>1.064450722769919</v>
       </c>
       <c r="D14">
-        <v>0.05630741083118096</v>
+        <v>0.1557621181881217</v>
       </c>
       <c r="E14">
-        <v>0.06849036353677906</v>
+        <v>0.01558086164759587</v>
       </c>
       <c r="F14">
-        <v>5.958383214121568</v>
+        <v>10.69768930462385</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1952039584005263</v>
+        <v>0.2069484337529985</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5496982311915062</v>
+        <v>0.9137626701371815</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.001930766140447</v>
+        <v>4.394296882314563</v>
       </c>
       <c r="C15">
-        <v>0.407455655316852</v>
+        <v>1.050007602808876</v>
       </c>
       <c r="D15">
-        <v>0.05587771062643299</v>
+        <v>0.1536796083764642</v>
       </c>
       <c r="E15">
-        <v>0.06854949041495484</v>
+        <v>0.01559496382547998</v>
       </c>
       <c r="F15">
-        <v>5.931965087199785</v>
+        <v>10.57925884486826</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1948312202676732</v>
+        <v>0.2050788297146156</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5478880558615415</v>
+        <v>0.9020849391976853</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.941870673897654</v>
+        <v>4.068616142443091</v>
       </c>
       <c r="C16">
-        <v>0.393497040321904</v>
+        <v>0.968835617978101</v>
       </c>
       <c r="D16">
-        <v>0.05342050462174086</v>
+        <v>0.141960809213586</v>
       </c>
       <c r="E16">
-        <v>0.06889624410985462</v>
+        <v>0.01568596379765097</v>
       </c>
       <c r="F16">
-        <v>5.781098115288358</v>
+        <v>9.912048685708669</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1927110000422729</v>
+        <v>0.1945610115480818</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5376591703948606</v>
+        <v>0.8364113503547799</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.905474422068664</v>
+        <v>3.873523648938374</v>
       </c>
       <c r="C17">
-        <v>0.3850426090880887</v>
+        <v>0.920336471684692</v>
       </c>
       <c r="D17">
-        <v>0.05191757373357575</v>
+        <v>0.1349463625268328</v>
       </c>
       <c r="E17">
-        <v>0.06911604807206917</v>
+        <v>0.01575063783184749</v>
       </c>
       <c r="F17">
-        <v>5.689006943400869</v>
+        <v>9.512098083570379</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1914242938552917</v>
+        <v>0.1882694187724567</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5315125704641375</v>
+        <v>0.7971421569952426</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.884704199872317</v>
+        <v>3.762877257380978</v>
       </c>
       <c r="C18">
-        <v>0.380219508272404</v>
+        <v>0.8928712273929875</v>
       </c>
       <c r="D18">
-        <v>0.05105470363831444</v>
+        <v>0.1309696108801575</v>
       </c>
       <c r="E18">
-        <v>0.06924508135163787</v>
+        <v>0.01579099945629903</v>
       </c>
       <c r="F18">
-        <v>5.636205009110938</v>
+        <v>9.285175733127119</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1906893086201933</v>
+        <v>0.1847044697176159</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5280242533333137</v>
+        <v>0.774895899256876</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.877699827562765</v>
+        <v>3.725668841222102</v>
       </c>
       <c r="C19">
-        <v>0.3785932741720046</v>
+        <v>0.8836417470104152</v>
       </c>
       <c r="D19">
-        <v>0.05076281449564135</v>
+        <v>0.1296325062071872</v>
       </c>
       <c r="E19">
-        <v>0.06928921821067657</v>
+        <v>0.01580520054558843</v>
       </c>
       <c r="F19">
-        <v>5.618355501492204</v>
+        <v>9.208850876887652</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1904413260672513</v>
+        <v>0.1835062144793511</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5268512326574424</v>
+        <v>0.7674191225640783</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.909331876987835</v>
+        <v>3.894126065431635</v>
       </c>
       <c r="C20">
-        <v>0.3859384860678858</v>
+        <v>0.9254537722816565</v>
       </c>
       <c r="D20">
-        <v>0.05207739855512727</v>
+        <v>0.1356869458090841</v>
       </c>
       <c r="E20">
-        <v>0.06909237978234728</v>
+        <v>0.01574342392270633</v>
       </c>
       <c r="F20">
-        <v>5.698792911956588</v>
+        <v>9.55434384882679</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1915607377251192</v>
+        <v>0.1889334877305373</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5321620136780183</v>
+        <v>0.8012864718497212</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.017576592263879</v>
+        <v>4.479977773218991</v>
       </c>
       <c r="C21">
-        <v>0.4110933504914556</v>
+        <v>1.071406722536011</v>
       </c>
       <c r="D21">
-        <v>0.05651355889820309</v>
+        <v>0.1567648061832472</v>
       </c>
       <c r="E21">
-        <v>0.06846215052964055</v>
+        <v>0.01557428305710395</v>
       </c>
       <c r="F21">
-        <v>5.97106080764371</v>
+        <v>10.75469581893174</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1953829773677072</v>
+        <v>0.207848642649509</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5505688218807663</v>
+        <v>0.9193859111951355</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.089800933539834</v>
+        <v>4.880515421113728</v>
       </c>
       <c r="C22">
-        <v>0.4278929910618103</v>
+        <v>1.171691860634212</v>
       </c>
       <c r="D22">
-        <v>0.05942842401695714</v>
+        <v>0.1712012124715159</v>
       </c>
       <c r="E22">
-        <v>0.06807336955784127</v>
+        <v>0.01549392960511042</v>
       </c>
       <c r="F22">
-        <v>6.150547587691278</v>
+        <v>11.57429564126005</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1979273261512091</v>
+        <v>0.2208099471245148</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5630214304542918</v>
+        <v>1.000384806428599</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.05111700721784</v>
+        <v>4.664923682485721</v>
       </c>
       <c r="C23">
-        <v>0.4188935049162978</v>
+        <v>1.117661391373446</v>
       </c>
       <c r="D23">
-        <v>0.05787120500767173</v>
+        <v>0.1634277911476119</v>
       </c>
       <c r="E23">
-        <v>0.06827876007995215</v>
+        <v>0.01553394348448744</v>
       </c>
       <c r="F23">
-        <v>6.054607832565921</v>
+        <v>11.13324941997212</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1965650777904102</v>
+        <v>0.2138309064041124</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5563363756703623</v>
+        <v>0.9567624216503887</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.907587440708198</v>
+        <v>3.884807032580454</v>
       </c>
       <c r="C24">
-        <v>0.3855333434610202</v>
+        <v>0.9231389510123051</v>
       </c>
       <c r="D24">
-        <v>0.0520051380799913</v>
+        <v>0.1353519553514531</v>
       </c>
       <c r="E24">
-        <v>0.06910307191381904</v>
+        <v>0.01574667544806996</v>
       </c>
       <c r="F24">
-        <v>5.694368232372682</v>
+        <v>9.535235224212499</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1914990366377083</v>
+        <v>0.1886331008901649</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5318682588910377</v>
+        <v>0.7994118069004585</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.759023393854648</v>
+        <v>3.101849765558484</v>
       </c>
       <c r="C25">
-        <v>0.3510618189815489</v>
+        <v>0.729386208161884</v>
       </c>
       <c r="D25">
-        <v>0.04573697145535505</v>
+        <v>0.107223398537144</v>
       </c>
       <c r="E25">
-        <v>0.07009199948940825</v>
+        <v>0.01609632254912441</v>
       </c>
       <c r="F25">
-        <v>5.312119290078272</v>
+        <v>7.928072731911726</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1862286961929982</v>
+        <v>0.1634665058577269</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5072718644532017</v>
+        <v>0.6424147262755753</v>
       </c>
       <c r="N25">
         <v>0</v>
